--- a/Results/akhir.xlsx
+++ b/Results/akhir.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Farza Nurifan\Documents\OneDrive\Dokumen\Code Paper\Tugas Akhir\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farza Nurifan\tugas-akhir\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDB1329-0514-4023-9E85-1F88DBB3414B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1608F3E-906A-4E19-8748-EEB6F6423212}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{C45D4860-ECCA-4919-AD47-D2C3A54CB4E3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="baru" sheetId="2" r:id="rId1"/>
+    <sheet name="lawas" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>AC1</t>
   </si>
@@ -111,6 +112,9 @@
   </si>
   <si>
     <t>plsa glove</t>
+  </si>
+  <si>
+    <t>+ Perbaikan</t>
   </si>
 </sst>
 </file>
@@ -350,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -440,6 +444,21 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -464,21 +483,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -792,11 +815,533 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1EB4A2-D468-48EA-9A90-E789497A2747}">
+  <dimension ref="B2:R11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="47"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="48"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="60">
+        <v>0.67999098089991328</v>
+      </c>
+      <c r="E4" s="60">
+        <v>0.71098781052316617</v>
+      </c>
+      <c r="F4" s="60">
+        <v>0.69514402615859705</v>
+      </c>
+      <c r="G4" s="60">
+        <v>0.6983547223889045</v>
+      </c>
+      <c r="H4" s="60">
+        <v>0.70772658232602692</v>
+      </c>
+      <c r="I4" s="60">
+        <v>0.70300941954098961</v>
+      </c>
+      <c r="J4" s="60">
+        <v>0.68187408487547296</v>
+      </c>
+      <c r="K4" s="60">
+        <v>0.70641324601482691</v>
+      </c>
+      <c r="L4" s="60">
+        <v>0.69392679015715142</v>
+      </c>
+      <c r="M4" s="60">
+        <v>0.71948063137579266</v>
+      </c>
+      <c r="N4" s="60">
+        <v>0.72431421387840955</v>
+      </c>
+      <c r="O4" s="60">
+        <v>0.72188933161614954</v>
+      </c>
+      <c r="P4" s="60">
+        <v>0.7760051489227624</v>
+      </c>
+      <c r="Q4" s="60">
+        <v>0.72146722109336925</v>
+      </c>
+      <c r="R4" s="60">
+        <v>0.74774304963158733</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="60">
+        <v>0.59742175951171839</v>
+      </c>
+      <c r="E5" s="60">
+        <v>0.75245344273329751</v>
+      </c>
+      <c r="F5" s="60">
+        <v>0.66603499191739668</v>
+      </c>
+      <c r="G5" s="60">
+        <v>0.60677175545733242</v>
+      </c>
+      <c r="H5" s="60">
+        <v>0.73847857440572673</v>
+      </c>
+      <c r="I5" s="60">
+        <v>0.66617778269625783</v>
+      </c>
+      <c r="J5" s="60">
+        <v>0.63890938606847691</v>
+      </c>
+      <c r="K5" s="60">
+        <v>0.76089110633011503</v>
+      </c>
+      <c r="L5" s="60">
+        <v>0.69458536734377696</v>
+      </c>
+      <c r="M5" s="60">
+        <v>0.62755693167975812</v>
+      </c>
+      <c r="N5" s="60">
+        <v>0.76403398460117111</v>
+      </c>
+      <c r="O5" s="60">
+        <v>0.68910312285852238</v>
+      </c>
+      <c r="P5" s="60">
+        <v>0.7482161095813249</v>
+      </c>
+      <c r="Q5" s="60">
+        <v>0.76135773540708385</v>
+      </c>
+      <c r="R5" s="60">
+        <v>0.75472972014868234</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="56"/>
+      <c r="D6" s="60">
+        <v>0.64613723972362713</v>
+      </c>
+      <c r="E6" s="60">
+        <v>0.75991294541817933</v>
+      </c>
+      <c r="F6" s="60">
+        <v>0.69842180339136817</v>
+      </c>
+      <c r="G6" s="60">
+        <v>0.67337123634322626</v>
+      </c>
+      <c r="H6" s="60">
+        <v>0.75110557035359427</v>
+      </c>
+      <c r="I6" s="60">
+        <v>0.71011740472785445</v>
+      </c>
+      <c r="J6" s="60">
+        <v>0.72401998800912848</v>
+      </c>
+      <c r="K6" s="60">
+        <v>0.76927492503224193</v>
+      </c>
+      <c r="L6" s="60">
+        <v>0.7459617214702674</v>
+      </c>
+      <c r="M6" s="60">
+        <v>0.70648598252599526</v>
+      </c>
+      <c r="N6" s="60">
+        <v>0.75928402936520856</v>
+      </c>
+      <c r="O6" s="60">
+        <v>0.7319340949133728</v>
+      </c>
+      <c r="P6" s="60">
+        <v>0.78923718267927101</v>
+      </c>
+      <c r="Q6" s="60">
+        <v>0.7661390841587381</v>
+      </c>
+      <c r="R6" s="60">
+        <v>0.77751662438719038</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="56"/>
+      <c r="D7" s="60">
+        <v>0.65823863636363633</v>
+      </c>
+      <c r="E7" s="60">
+        <v>0.72625276347237466</v>
+      </c>
+      <c r="F7" s="60">
+        <v>0.69057507867510293</v>
+      </c>
+      <c r="G7" s="60">
+        <v>0.69743533798794033</v>
+      </c>
+      <c r="H7" s="60">
+        <v>0.73033182903402949</v>
+      </c>
+      <c r="I7" s="60">
+        <v>0.71350460746077837</v>
+      </c>
+      <c r="J7" s="60">
+        <v>0.72304250396670455</v>
+      </c>
+      <c r="K7" s="60">
+        <v>0.73587241641076295</v>
+      </c>
+      <c r="L7" s="60">
+        <v>0.72940104611995449</v>
+      </c>
+      <c r="M7" s="60">
+        <v>0.71353968330143624</v>
+      </c>
+      <c r="N7" s="60">
+        <v>0.73567033265815573</v>
+      </c>
+      <c r="O7" s="60">
+        <v>0.72443603121467692</v>
+      </c>
+      <c r="P7" s="60">
+        <v>0.79538387661848442</v>
+      </c>
+      <c r="Q7" s="60">
+        <v>0.73871057376718563</v>
+      </c>
+      <c r="R7" s="60">
+        <v>0.76600039810364651</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="60">
+        <v>0.66586245707294789</v>
+      </c>
+      <c r="E8" s="60">
+        <v>0.79178714364038005</v>
+      </c>
+      <c r="F8" s="60">
+        <v>0.72338555532845339</v>
+      </c>
+      <c r="G8" s="60">
+        <v>0.68871412052453929</v>
+      </c>
+      <c r="H8" s="60">
+        <v>0.79177266868999407</v>
+      </c>
+      <c r="I8" s="60">
+        <v>0.73665637700354791</v>
+      </c>
+      <c r="J8" s="60">
+        <v>0.66343292790891717</v>
+      </c>
+      <c r="K8" s="60">
+        <v>0.78714807410064835</v>
+      </c>
+      <c r="L8" s="60">
+        <v>0.72001487786617901</v>
+      </c>
+      <c r="M8" s="60">
+        <v>0.70354049458766554</v>
+      </c>
+      <c r="N8" s="60">
+        <v>0.80971622908174934</v>
+      </c>
+      <c r="O8" s="60">
+        <v>0.75290351911006315</v>
+      </c>
+      <c r="P8" s="60">
+        <v>0.75840838547752698</v>
+      </c>
+      <c r="Q8" s="60">
+        <v>0.80598461034799429</v>
+      </c>
+      <c r="R8" s="60">
+        <v>0.78147305528070932</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60">
+        <v>0.6051142974821222</v>
+      </c>
+      <c r="E9" s="60">
+        <v>0.811963687882295</v>
+      </c>
+      <c r="F9" s="60">
+        <v>0.69344219816884245</v>
+      </c>
+      <c r="G9" s="60">
+        <v>0.61074717105486498</v>
+      </c>
+      <c r="H9" s="60">
+        <v>0.79606574263164731</v>
+      </c>
+      <c r="I9" s="60">
+        <v>0.69120050797928678</v>
+      </c>
+      <c r="J9" s="60">
+        <v>0.63932789273639123</v>
+      </c>
+      <c r="K9" s="60">
+        <v>0.81737440619623913</v>
+      </c>
+      <c r="L9" s="60">
+        <v>0.71747021621782781</v>
+      </c>
+      <c r="M9" s="60">
+        <v>0.64006667676089413</v>
+      </c>
+      <c r="N9" s="60">
+        <v>0.82137057025435567</v>
+      </c>
+      <c r="O9" s="60">
+        <v>0.71947246775820006</v>
+      </c>
+      <c r="P9" s="60">
+        <v>0.74824401926341466</v>
+      </c>
+      <c r="Q9" s="60">
+        <v>0.82165584895770749</v>
+      </c>
+      <c r="R9" s="60">
+        <v>0.7832334880976155</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60">
+        <v>0.64559240050025757</v>
+      </c>
+      <c r="E10" s="60">
+        <v>0.80861784018160865</v>
+      </c>
+      <c r="F10" s="60">
+        <v>0.7179670695832806</v>
+      </c>
+      <c r="G10" s="60">
+        <v>0.67641342301957175</v>
+      </c>
+      <c r="H10" s="60">
+        <v>0.79747406513588948</v>
+      </c>
+      <c r="I10" s="60">
+        <v>0.73197196733513936</v>
+      </c>
+      <c r="J10" s="60">
+        <v>0.70790866767328164</v>
+      </c>
+      <c r="K10" s="60">
+        <v>0.81578838273454812</v>
+      </c>
+      <c r="L10" s="60">
+        <v>0.75802951376768979</v>
+      </c>
+      <c r="M10" s="60">
+        <v>0.70927001289125746</v>
+      </c>
+      <c r="N10" s="60">
+        <v>0.80286821168577205</v>
+      </c>
+      <c r="O10" s="60">
+        <v>0.75317234575117387</v>
+      </c>
+      <c r="P10" s="60">
+        <v>0.78124521315229423</v>
+      </c>
+      <c r="Q10" s="60">
+        <v>0.81288864948339423</v>
+      </c>
+      <c r="R10" s="60">
+        <v>0.79675287141161244</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60">
+        <v>0.64780363601751378</v>
+      </c>
+      <c r="E11" s="60">
+        <v>0.79688347328808773</v>
+      </c>
+      <c r="F11" s="60">
+        <v>0.71465164761719935</v>
+      </c>
+      <c r="G11" s="60">
+        <v>0.6922284215442035</v>
+      </c>
+      <c r="H11" s="60">
+        <v>0.80308947087947302</v>
+      </c>
+      <c r="I11" s="60">
+        <v>0.74354939454995173</v>
+      </c>
+      <c r="J11" s="60">
+        <v>0.70053998197591394</v>
+      </c>
+      <c r="K11" s="60">
+        <v>0.80369542335468425</v>
+      </c>
+      <c r="L11" s="60">
+        <v>0.74858067480106316</v>
+      </c>
+      <c r="M11" s="60">
+        <v>0.71054668003134069</v>
+      </c>
+      <c r="N11" s="60">
+        <v>0.80218744084371085</v>
+      </c>
+      <c r="O11" s="60">
+        <v>0.75359128215422366</v>
+      </c>
+      <c r="P11" s="60">
+        <v>0.78851182284902066</v>
+      </c>
+      <c r="Q11" s="60">
+        <v>0.81069721242227122</v>
+      </c>
+      <c r="R11" s="60">
+        <v>0.79945063171464958</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982B0870-1405-405C-81CD-843077839BF3}">
   <dimension ref="B3:W26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,35 +1356,35 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="41" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="41" t="s">
+      <c r="E3" s="47"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="41" t="s">
+      <c r="H3" s="47"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="42"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="41" t="s">
+      <c r="K3" s="47"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="41" t="s">
+      <c r="N3" s="47"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="43"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="48"/>
       <c r="T3" s="38" t="s">
         <v>19</v>
       </c>
@@ -854,8 +1399,8 @@
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="17" t="s">
         <v>6</v>
       </c>
@@ -915,7 +1460,7 @@
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="53" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -980,7 +1525,7 @@
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="49"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="16" t="s">
         <v>9</v>
       </c>
@@ -1043,7 +1588,7 @@
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="49"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="16" t="s">
         <v>12</v>
       </c>
@@ -1094,7 +1639,7 @@
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="49"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="27" t="s">
         <v>10</v>
       </c>
@@ -1164,7 +1709,7 @@
       <c r="R9" s="26"/>
     </row>
     <row r="10" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="54" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="28" t="s">
@@ -1217,7 +1762,7 @@
       </c>
     </row>
     <row r="11" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="16" t="s">
         <v>9</v>
       </c>
@@ -1268,7 +1813,7 @@
       </c>
     </row>
     <row r="12" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="50"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="16" t="s">
         <v>12</v>
       </c>
@@ -1319,7 +1864,7 @@
       </c>
     </row>
     <row r="13" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="50"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="27" t="s">
         <v>10</v>
       </c>
@@ -1389,7 +1934,7 @@
       <c r="R14" s="26"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="44" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="28" t="s">
@@ -1442,7 +1987,7 @@
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="49"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="16" t="s">
         <v>9</v>
       </c>
@@ -1493,7 +2038,7 @@
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="49"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="16" t="s">
         <v>12</v>
       </c>
@@ -1544,7 +2089,7 @@
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="51"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="16" t="s">
         <v>10</v>
       </c>
@@ -1595,13 +2140,13 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="52" t="s">
+      <c r="E21" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="42" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1609,7 +2154,7 @@
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="43" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="36">
@@ -1623,7 +2168,7 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="37" t="s">
@@ -1640,26 +2185,26 @@
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="43" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="43" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B10:B13"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
